--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projet_Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projet_Web\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -130,7 +130,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="hh/mm&quot; h&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -200,7 +200,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H785"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -853,11 +853,11 @@
         <v>0.64374999999999993</v>
       </c>
       <c r="C15" s="4">
-        <v>0.63124999999999998</v>
+        <v>0.65138888888888891</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
-        <v>-1.2499999999999956E-2</v>
+        <v>7.6388888888889728E-3</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>10</v>
@@ -874,14 +874,14 @@
         <v>44959</v>
       </c>
       <c r="B16" s="4">
-        <v>0.6333333333333333</v>
+        <v>0.65208333333333335</v>
       </c>
       <c r="C16" s="4">
         <v>0.66249999999999998</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
-        <v>2.9166666666666674E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>10</v>

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -123,6 +123,9 @@
   <si>
     <t>Commencement de la page accueil du site avec de l'Html et du CSS
 (Jorge)</t>
+  </si>
+  <si>
+    <t>Continuation des prochains sprints est tasks sur IceScrum.</t>
   </si>
 </sst>
 </file>
@@ -491,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H785"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -918,11 +921,25 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
+      <c r="A18" s="3">
+        <v>44966</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.56597222222222221</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.56597222222222221</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -932,6 +949,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F19" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
@@ -940,6 +960,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F20" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -125,7 +125,7 @@
 (Jorge)</t>
   </si>
   <si>
-    <t>Continuation des prochains sprints est tasks sur IceScrum.</t>
+    <t>Modifications des styles css dans la page d'accueil.</t>
   </si>
 </sst>
 </file>
@@ -192,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -210,6 +210,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -492,16 +495,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H785"/>
+  <dimension ref="A1:H734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="3"/>
-    <col min="2" max="3" width="13.85546875" style="5" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="5" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" style="5" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="5" customWidth="1"/>
@@ -514,10 +517,10 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -927,13 +930,12 @@
       <c r="B18" s="4">
         <v>0.56597222222222221</v>
       </c>
-      <c r="C18" s="4"/>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
         <v>-0.56597222222222221</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>8</v>
@@ -943,8 +945,6 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -954,8 +954,6 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -965,5920 +963,4288 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
       <c r="D27" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
       <c r="D28" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
       <c r="D29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
       <c r="D30" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
       <c r="D31" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
       <c r="D32" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+    <row r="33" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+    <row r="34" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+    <row r="35" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+    <row r="36" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+    <row r="37" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+    <row r="38" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+    <row r="39" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+    <row r="40" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+    <row r="41" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+    <row r="42" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+    <row r="43" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+    <row r="44" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D44" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+    <row r="45" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+    <row r="46" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+    <row r="47" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+    <row r="48" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D48" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+    <row r="49" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+    <row r="50" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D50" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+    <row r="51" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D51" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+    <row r="52" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D52" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+    <row r="53" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D53" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+    <row r="54" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D54" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+    <row r="55" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D55" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+    <row r="56" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D56" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+    <row r="57" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D57" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+    <row r="58" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D58" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+    <row r="59" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D59" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+    <row r="60" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D60" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+    <row r="61" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D61" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+    <row r="62" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D62" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+    <row r="63" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D63" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+    <row r="64" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D64" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+    <row r="65" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D65" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+    <row r="66" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D66" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+    <row r="67" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D67" s="4">
         <f t="shared" ref="D67:D130" si="1">C67-B67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+    <row r="68" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D68" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+    <row r="69" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D69" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
+    <row r="70" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D70" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
+    <row r="71" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D71" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
+    <row r="72" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D72" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
+    <row r="73" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D73" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+    <row r="74" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D74" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
+    <row r="75" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D75" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
+    <row r="76" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D76" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
+    <row r="77" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D77" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
+    <row r="78" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D78" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
+    <row r="79" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D79" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
+    <row r="80" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D80" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
+    <row r="81" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D81" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
+    <row r="82" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D82" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
+    <row r="83" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D83" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
+    <row r="84" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D84" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
+    <row r="85" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D85" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
+    <row r="86" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D86" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
+    <row r="87" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D87" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
+    <row r="88" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D88" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
+    <row r="89" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D89" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
+    <row r="90" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D90" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
+    <row r="91" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D91" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
+    <row r="92" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D92" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
+    <row r="93" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D93" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
+    <row r="94" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D94" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
+    <row r="95" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D95" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
+    <row r="96" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D96" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
+    <row r="97" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D97" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
+    <row r="98" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D98" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
+    <row r="99" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D99" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
+    <row r="100" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D100" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
+    <row r="101" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D101" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
+    <row r="102" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D102" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
+    <row r="103" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D103" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
+    <row r="104" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D104" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
+    <row r="105" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D105" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
+    <row r="106" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D106" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
+    <row r="107" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D107" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
+    <row r="108" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D108" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
+    <row r="109" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D109" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
+    <row r="110" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D110" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
+    <row r="111" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D111" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
+    <row r="112" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D112" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
+    <row r="113" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D113" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
+    <row r="114" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D114" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
+    <row r="115" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D115" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
+    <row r="116" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D116" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
+    <row r="117" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D117" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
+    <row r="118" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D118" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
+    <row r="119" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D119" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
+    <row r="120" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D120" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
+    <row r="121" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D121" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
+    <row r="122" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D122" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
+    <row r="123" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D123" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
+    <row r="124" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D124" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
+    <row r="125" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D125" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
+    <row r="126" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D126" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
+    <row r="127" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D127" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
+    <row r="128" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D128" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
+    <row r="129" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D129" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
+    <row r="130" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D130" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
+    <row r="131" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D131" s="4">
         <f t="shared" ref="D131:D194" si="2">C131-B131</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
+    <row r="132" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D132" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
+    <row r="133" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D133" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
+    <row r="134" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D134" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
+    <row r="135" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D135" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
+    <row r="136" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D136" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
+    <row r="137" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D137" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
+    <row r="138" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D138" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
+    <row r="139" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D139" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
+    <row r="140" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D140" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
+    <row r="141" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D141" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
+    <row r="142" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D142" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
+    <row r="143" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D143" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
+    <row r="144" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D144" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
+    <row r="145" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D145" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
+    <row r="146" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D146" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
+    <row r="147" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D147" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
+    <row r="148" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D148" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
+    <row r="149" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D149" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
+    <row r="150" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D150" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
+    <row r="151" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D151" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
+    <row r="152" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D152" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
+    <row r="153" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D153" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
+    <row r="154" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D154" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
+    <row r="155" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D155" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
+    <row r="156" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D156" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
+    <row r="157" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D157" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
+    <row r="158" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D158" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
+    <row r="159" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D159" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
+    <row r="160" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D160" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
+    <row r="161" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D161" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
+    <row r="162" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D162" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
+    <row r="163" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D163" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
+    <row r="164" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D164" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
+    <row r="165" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D165" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
+    <row r="166" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D166" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
+    <row r="167" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D167" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
+    <row r="168" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D168" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
+    <row r="169" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D169" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
+    <row r="170" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D170" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
+    <row r="171" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D171" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
+    <row r="172" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D172" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
+    <row r="173" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D173" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
+    <row r="174" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D174" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
+    <row r="175" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D175" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
+    <row r="176" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D176" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
+    <row r="177" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D177" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
+    <row r="178" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D178" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
+    <row r="179" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D179" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
+    <row r="180" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D180" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
+    <row r="181" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D181" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
+    <row r="182" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D182" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
+    <row r="183" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D183" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
+    <row r="184" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D184" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
+    <row r="185" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D185" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
+    <row r="186" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D186" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
+    <row r="187" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D187" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
+    <row r="188" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D188" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
+    <row r="189" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D189" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
+    <row r="190" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D190" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
+    <row r="191" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D191" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="4"/>
-      <c r="C192" s="4"/>
+    <row r="192" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D192" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
+    <row r="193" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D193" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
+    <row r="194" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D194" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
+    <row r="195" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D195" s="4">
         <f t="shared" ref="D195:D258" si="3">C195-B195</f>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="4"/>
-      <c r="C196" s="4"/>
+    <row r="196" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D196" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
+    <row r="197" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D197" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
+    <row r="198" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D198" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
+    <row r="199" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D199" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="4"/>
-      <c r="C200" s="4"/>
+    <row r="200" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D200" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="4"/>
-      <c r="C201" s="4"/>
+    <row r="201" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D201" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="4"/>
-      <c r="C202" s="4"/>
+    <row r="202" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D202" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
+    <row r="203" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D203" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="4"/>
-      <c r="C204" s="4"/>
+    <row r="204" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D204" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
+    <row r="205" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D205" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
+    <row r="206" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D206" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
+    <row r="207" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D207" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="4"/>
-      <c r="C208" s="4"/>
+    <row r="208" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D208" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="4"/>
-      <c r="C209" s="4"/>
+    <row r="209" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D209" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="4"/>
-      <c r="C210" s="4"/>
+    <row r="210" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D210" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="4"/>
-      <c r="C211" s="4"/>
+    <row r="211" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D211" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="4"/>
-      <c r="C212" s="4"/>
+    <row r="212" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D212" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="4"/>
-      <c r="C213" s="4"/>
+    <row r="213" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D213" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="4"/>
-      <c r="C214" s="4"/>
+    <row r="214" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D214" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="4"/>
-      <c r="C215" s="4"/>
+    <row r="215" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D215" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="4"/>
-      <c r="C216" s="4"/>
+    <row r="216" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D216" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="4"/>
-      <c r="C217" s="4"/>
+    <row r="217" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D217" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="4"/>
-      <c r="C218" s="4"/>
+    <row r="218" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D218" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="4"/>
-      <c r="C219" s="4"/>
+    <row r="219" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D219" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="4"/>
-      <c r="C220" s="4"/>
+    <row r="220" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D220" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
+    <row r="221" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D221" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
+    <row r="222" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D222" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="4"/>
-      <c r="C223" s="4"/>
+    <row r="223" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D223" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
+    <row r="224" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D224" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="4"/>
-      <c r="C225" s="4"/>
+    <row r="225" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D225" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="4"/>
-      <c r="C226" s="4"/>
+    <row r="226" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D226" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="4"/>
-      <c r="C227" s="4"/>
+    <row r="227" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D227" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="4"/>
-      <c r="C228" s="4"/>
+    <row r="228" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D228" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="4"/>
-      <c r="C229" s="4"/>
+    <row r="229" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D229" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="4"/>
-      <c r="C230" s="4"/>
+    <row r="230" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D230" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="4"/>
-      <c r="C231" s="4"/>
+    <row r="231" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D231" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="4"/>
-      <c r="C232" s="4"/>
+    <row r="232" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D232" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="4"/>
-      <c r="C233" s="4"/>
+    <row r="233" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D233" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="4"/>
-      <c r="C234" s="4"/>
+    <row r="234" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D234" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="4"/>
-      <c r="C235" s="4"/>
+    <row r="235" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D235" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="4"/>
-      <c r="C236" s="4"/>
+    <row r="236" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D236" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="4"/>
-      <c r="C237" s="4"/>
+    <row r="237" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D237" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="4"/>
-      <c r="C238" s="4"/>
+    <row r="238" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D238" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="4"/>
-      <c r="C239" s="4"/>
+    <row r="239" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D239" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="4"/>
-      <c r="C240" s="4"/>
+    <row r="240" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D240" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="4"/>
-      <c r="C241" s="4"/>
+    <row r="241" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D241" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="4"/>
-      <c r="C242" s="4"/>
+    <row r="242" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D242" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="4"/>
-      <c r="C243" s="4"/>
+    <row r="243" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D243" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="4"/>
-      <c r="C244" s="4"/>
+    <row r="244" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D244" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="4"/>
-      <c r="C245" s="4"/>
+    <row r="245" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D245" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="4"/>
-      <c r="C246" s="4"/>
+    <row r="246" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D246" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="4"/>
-      <c r="C247" s="4"/>
+    <row r="247" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D247" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="4"/>
-      <c r="C248" s="4"/>
+    <row r="248" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D248" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="4"/>
-      <c r="C249" s="4"/>
+    <row r="249" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D249" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="4"/>
-      <c r="C250" s="4"/>
+    <row r="250" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D250" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="4"/>
-      <c r="C251" s="4"/>
+    <row r="251" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D251" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="4"/>
-      <c r="C252" s="4"/>
+    <row r="252" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D252" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="4"/>
-      <c r="C253" s="4"/>
+    <row r="253" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D253" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="4"/>
-      <c r="C254" s="4"/>
+    <row r="254" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D254" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="4"/>
-      <c r="C255" s="4"/>
+    <row r="255" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D255" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="4"/>
-      <c r="C256" s="4"/>
+    <row r="256" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D256" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="4"/>
-      <c r="C257" s="4"/>
+    <row r="257" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D257" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="4"/>
-      <c r="C258" s="4"/>
+    <row r="258" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D258" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="4"/>
-      <c r="C259" s="4"/>
+    <row r="259" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D259" s="4">
         <f t="shared" ref="D259:D322" si="4">C259-B259</f>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="4"/>
-      <c r="C260" s="4"/>
+    <row r="260" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D260" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="4"/>
-      <c r="C261" s="4"/>
+    <row r="261" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D261" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="4"/>
-      <c r="C262" s="4"/>
+    <row r="262" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D262" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="4"/>
-      <c r="C263" s="4"/>
+    <row r="263" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D263" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="4"/>
-      <c r="C264" s="4"/>
+    <row r="264" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D264" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="4"/>
-      <c r="C265" s="4"/>
+    <row r="265" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D265" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="4"/>
-      <c r="C266" s="4"/>
+    <row r="266" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D266" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="4"/>
-      <c r="C267" s="4"/>
+    <row r="267" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D267" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="4"/>
-      <c r="C268" s="4"/>
+    <row r="268" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D268" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="4"/>
-      <c r="C269" s="4"/>
+    <row r="269" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D269" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="4"/>
-      <c r="C270" s="4"/>
+    <row r="270" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D270" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="4"/>
-      <c r="C271" s="4"/>
+    <row r="271" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D271" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="4"/>
-      <c r="C272" s="4"/>
+    <row r="272" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D272" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="4"/>
-      <c r="C273" s="4"/>
+    <row r="273" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D273" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="4"/>
-      <c r="C274" s="4"/>
+    <row r="274" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D274" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="4"/>
-      <c r="C275" s="4"/>
+    <row r="275" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D275" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="4"/>
-      <c r="C276" s="4"/>
+    <row r="276" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D276" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="4"/>
-      <c r="C277" s="4"/>
+    <row r="277" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D277" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="4"/>
-      <c r="C278" s="4"/>
+    <row r="278" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D278" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="4"/>
-      <c r="C279" s="4"/>
+    <row r="279" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D279" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="4"/>
-      <c r="C280" s="4"/>
+    <row r="280" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D280" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="4"/>
-      <c r="C281" s="4"/>
+    <row r="281" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D281" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="4"/>
-      <c r="C282" s="4"/>
+    <row r="282" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D282" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="4"/>
-      <c r="C283" s="4"/>
+    <row r="283" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D283" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="4"/>
-      <c r="C284" s="4"/>
+    <row r="284" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D284" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="4"/>
-      <c r="C285" s="4"/>
+    <row r="285" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D285" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B286" s="4"/>
-      <c r="C286" s="4"/>
+    <row r="286" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D286" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="4"/>
-      <c r="C287" s="4"/>
+    <row r="287" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D287" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="4"/>
-      <c r="C288" s="4"/>
+    <row r="288" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D288" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="4"/>
-      <c r="C289" s="4"/>
+    <row r="289" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D289" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="4"/>
-      <c r="C290" s="4"/>
+    <row r="290" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D290" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="4"/>
-      <c r="C291" s="4"/>
+    <row r="291" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D291" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B292" s="4"/>
-      <c r="C292" s="4"/>
+    <row r="292" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D292" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="4"/>
-      <c r="C293" s="4"/>
+    <row r="293" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D293" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="4"/>
-      <c r="C294" s="4"/>
+    <row r="294" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D294" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="4"/>
-      <c r="C295" s="4"/>
+    <row r="295" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D295" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="4"/>
-      <c r="C296" s="4"/>
+    <row r="296" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D296" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="4"/>
-      <c r="C297" s="4"/>
+    <row r="297" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D297" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="4"/>
-      <c r="C298" s="4"/>
+    <row r="298" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D298" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B299" s="4"/>
-      <c r="C299" s="4"/>
+    <row r="299" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D299" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B300" s="4"/>
-      <c r="C300" s="4"/>
+    <row r="300" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D300" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="4"/>
-      <c r="C301" s="4"/>
+    <row r="301" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D301" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B302" s="4"/>
-      <c r="C302" s="4"/>
+    <row r="302" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D302" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B303" s="4"/>
-      <c r="C303" s="4"/>
+    <row r="303" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D303" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B304" s="4"/>
-      <c r="C304" s="4"/>
+    <row r="304" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D304" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B305" s="4"/>
-      <c r="C305" s="4"/>
+    <row r="305" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D305" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B306" s="4"/>
-      <c r="C306" s="4"/>
+    <row r="306" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D306" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B307" s="4"/>
-      <c r="C307" s="4"/>
+    <row r="307" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D307" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="4"/>
-      <c r="C308" s="4"/>
+    <row r="308" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D308" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B309" s="4"/>
-      <c r="C309" s="4"/>
+    <row r="309" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D309" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B310" s="4"/>
-      <c r="C310" s="4"/>
+    <row r="310" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D310" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B311" s="4"/>
-      <c r="C311" s="4"/>
+    <row r="311" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D311" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B312" s="4"/>
-      <c r="C312" s="4"/>
+    <row r="312" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D312" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B313" s="4"/>
-      <c r="C313" s="4"/>
+    <row r="313" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D313" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B314" s="4"/>
-      <c r="C314" s="4"/>
+    <row r="314" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D314" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="4"/>
-      <c r="C315" s="4"/>
+    <row r="315" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D315" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B316" s="4"/>
-      <c r="C316" s="4"/>
+    <row r="316" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D316" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B317" s="4"/>
-      <c r="C317" s="4"/>
+    <row r="317" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D317" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B318" s="4"/>
-      <c r="C318" s="4"/>
+    <row r="318" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D318" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B319" s="4"/>
-      <c r="C319" s="4"/>
+    <row r="319" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D319" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B320" s="4"/>
-      <c r="C320" s="4"/>
+    <row r="320" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D320" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B321" s="4"/>
-      <c r="C321" s="4"/>
+    <row r="321" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D321" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="4"/>
-      <c r="C322" s="4"/>
+    <row r="322" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D322" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B323" s="4"/>
-      <c r="C323" s="4"/>
+    <row r="323" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D323" s="4">
         <f t="shared" ref="D323:D386" si="5">C323-B323</f>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B324" s="4"/>
-      <c r="C324" s="4"/>
+    <row r="324" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D324" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B325" s="4"/>
-      <c r="C325" s="4"/>
+    <row r="325" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D325" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B326" s="4"/>
-      <c r="C326" s="4"/>
+    <row r="326" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D326" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B327" s="4"/>
-      <c r="C327" s="4"/>
+    <row r="327" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D327" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B328" s="4"/>
-      <c r="C328" s="4"/>
+    <row r="328" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D328" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="4"/>
-      <c r="C329" s="4"/>
+    <row r="329" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D329" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B330" s="4"/>
-      <c r="C330" s="4"/>
+    <row r="330" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D330" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B331" s="4"/>
-      <c r="C331" s="4"/>
+    <row r="331" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D331" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B332" s="4"/>
-      <c r="C332" s="4"/>
+    <row r="332" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D332" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B333" s="4"/>
-      <c r="C333" s="4"/>
+    <row r="333" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D333" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="4"/>
-      <c r="C334" s="4"/>
+    <row r="334" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D334" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B335" s="4"/>
-      <c r="C335" s="4"/>
+    <row r="335" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D335" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B336" s="4"/>
-      <c r="C336" s="4"/>
+    <row r="336" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D336" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B337" s="4"/>
-      <c r="C337" s="4"/>
+    <row r="337" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D337" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B338" s="4"/>
-      <c r="C338" s="4"/>
+    <row r="338" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D338" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B339" s="4"/>
-      <c r="C339" s="4"/>
+    <row r="339" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D339" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B340" s="4"/>
-      <c r="C340" s="4"/>
+    <row r="340" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D340" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B341" s="4"/>
-      <c r="C341" s="4"/>
+    <row r="341" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D341" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="4"/>
-      <c r="C342" s="4"/>
+    <row r="342" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D342" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B343" s="4"/>
-      <c r="C343" s="4"/>
+    <row r="343" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D343" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B344" s="4"/>
-      <c r="C344" s="4"/>
+    <row r="344" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D344" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B345" s="4"/>
-      <c r="C345" s="4"/>
+    <row r="345" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D345" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B346" s="4"/>
-      <c r="C346" s="4"/>
+    <row r="346" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D346" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B347" s="4"/>
-      <c r="C347" s="4"/>
+    <row r="347" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D347" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B348" s="4"/>
-      <c r="C348" s="4"/>
+    <row r="348" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D348" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="4"/>
-      <c r="C349" s="4"/>
+    <row r="349" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D349" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B350" s="4"/>
-      <c r="C350" s="4"/>
+    <row r="350" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D350" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B351" s="4"/>
-      <c r="C351" s="4"/>
+    <row r="351" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D351" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B352" s="4"/>
-      <c r="C352" s="4"/>
+    <row r="352" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D352" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B353" s="4"/>
-      <c r="C353" s="4"/>
+    <row r="353" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D353" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B354" s="4"/>
-      <c r="C354" s="4"/>
+    <row r="354" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D354" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B355" s="4"/>
-      <c r="C355" s="4"/>
+    <row r="355" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D355" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="4"/>
-      <c r="C356" s="4"/>
+    <row r="356" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D356" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B357" s="4"/>
-      <c r="C357" s="4"/>
+    <row r="357" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D357" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B358" s="4"/>
-      <c r="C358" s="4"/>
+    <row r="358" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D358" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B359" s="4"/>
-      <c r="C359" s="4"/>
+    <row r="359" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D359" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B360" s="4"/>
-      <c r="C360" s="4"/>
+    <row r="360" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D360" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B361" s="4"/>
-      <c r="C361" s="4"/>
+    <row r="361" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D361" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B362" s="4"/>
-      <c r="C362" s="4"/>
+    <row r="362" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D362" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="4"/>
-      <c r="C363" s="4"/>
+    <row r="363" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D363" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="4"/>
-      <c r="C364" s="4"/>
+    <row r="364" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D364" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B365" s="4"/>
-      <c r="C365" s="4"/>
+    <row r="365" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D365" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B366" s="4"/>
-      <c r="C366" s="4"/>
+    <row r="366" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D366" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B367" s="4"/>
-      <c r="C367" s="4"/>
+    <row r="367" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D367" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B368" s="4"/>
-      <c r="C368" s="4"/>
+    <row r="368" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D368" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B369" s="4"/>
-      <c r="C369" s="4"/>
+    <row r="369" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D369" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="4"/>
-      <c r="C370" s="4"/>
+    <row r="370" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D370" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B371" s="4"/>
-      <c r="C371" s="4"/>
+    <row r="371" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D371" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B372" s="4"/>
-      <c r="C372" s="4"/>
+    <row r="372" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D372" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B373" s="4"/>
-      <c r="C373" s="4"/>
+    <row r="373" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D373" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B374" s="4"/>
-      <c r="C374" s="4"/>
+    <row r="374" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D374" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B375" s="4"/>
-      <c r="C375" s="4"/>
+    <row r="375" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D375" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B376" s="4"/>
-      <c r="C376" s="4"/>
+    <row r="376" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D376" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B377" s="4"/>
-      <c r="C377" s="4"/>
+    <row r="377" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D377" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B378" s="4"/>
-      <c r="C378" s="4"/>
+    <row r="378" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D378" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B379" s="4"/>
-      <c r="C379" s="4"/>
+    <row r="379" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D379" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B380" s="4"/>
-      <c r="C380" s="4"/>
+    <row r="380" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D380" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B381" s="4"/>
-      <c r="C381" s="4"/>
+    <row r="381" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D381" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B382" s="4"/>
-      <c r="C382" s="4"/>
+    <row r="382" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D382" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B383" s="4"/>
-      <c r="C383" s="4"/>
+    <row r="383" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D383" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="4"/>
-      <c r="C384" s="4"/>
+    <row r="384" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D384" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B385" s="4"/>
-      <c r="C385" s="4"/>
+    <row r="385" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D385" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B386" s="4"/>
-      <c r="C386" s="4"/>
+    <row r="386" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D386" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B387" s="4"/>
-      <c r="C387" s="4"/>
+    <row r="387" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D387" s="4">
         <f t="shared" ref="D387:D450" si="6">C387-B387</f>
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B388" s="4"/>
-      <c r="C388" s="4"/>
+    <row r="388" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D388" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B389" s="4"/>
-      <c r="C389" s="4"/>
+    <row r="389" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D389" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B390" s="4"/>
-      <c r="C390" s="4"/>
+    <row r="390" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D390" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="4"/>
-      <c r="C391" s="4"/>
+    <row r="391" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D391" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B392" s="4"/>
-      <c r="C392" s="4"/>
+    <row r="392" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D392" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B393" s="4"/>
-      <c r="C393" s="4"/>
+    <row r="393" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D393" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B394" s="4"/>
-      <c r="C394" s="4"/>
+    <row r="394" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D394" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B395" s="4"/>
-      <c r="C395" s="4"/>
+    <row r="395" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D395" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B396" s="4"/>
-      <c r="C396" s="4"/>
+    <row r="396" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D396" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B397" s="4"/>
-      <c r="C397" s="4"/>
+    <row r="397" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D397" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B398" s="4"/>
-      <c r="C398" s="4"/>
+    <row r="398" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D398" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B399" s="4"/>
-      <c r="C399" s="4"/>
+    <row r="399" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D399" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B400" s="4"/>
-      <c r="C400" s="4"/>
+    <row r="400" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D400" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B401" s="4"/>
-      <c r="C401" s="4"/>
+    <row r="401" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D401" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="4"/>
-      <c r="C402" s="4"/>
+    <row r="402" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D402" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B403" s="4"/>
-      <c r="C403" s="4"/>
+    <row r="403" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D403" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B404" s="4"/>
-      <c r="C404" s="4"/>
+    <row r="404" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D404" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B405" s="4"/>
-      <c r="C405" s="4"/>
+    <row r="405" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D405" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B406" s="4"/>
-      <c r="C406" s="4"/>
+    <row r="406" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D406" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B407" s="4"/>
-      <c r="C407" s="4"/>
+    <row r="407" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D407" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B408" s="4"/>
-      <c r="C408" s="4"/>
+    <row r="408" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D408" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B409" s="4"/>
-      <c r="C409" s="4"/>
+    <row r="409" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D409" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B410" s="4"/>
-      <c r="C410" s="4"/>
+    <row r="410" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D410" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B411" s="4"/>
-      <c r="C411" s="4"/>
+    <row r="411" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D411" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="4"/>
-      <c r="C412" s="4"/>
+    <row r="412" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D412" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B413" s="4"/>
-      <c r="C413" s="4"/>
+    <row r="413" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D413" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B414" s="4"/>
-      <c r="C414" s="4"/>
+    <row r="414" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D414" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B415" s="4"/>
-      <c r="C415" s="4"/>
+    <row r="415" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D415" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B416" s="4"/>
-      <c r="C416" s="4"/>
+    <row r="416" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D416" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B417" s="4"/>
-      <c r="C417" s="4"/>
+    <row r="417" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D417" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B418" s="4"/>
-      <c r="C418" s="4"/>
+    <row r="418" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D418" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B419" s="4"/>
-      <c r="C419" s="4"/>
+    <row r="419" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D419" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B420" s="4"/>
-      <c r="C420" s="4"/>
+    <row r="420" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D420" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B421" s="4"/>
-      <c r="C421" s="4"/>
+    <row r="421" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D421" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B422" s="4"/>
-      <c r="C422" s="4"/>
+    <row r="422" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D422" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B423" s="4"/>
-      <c r="C423" s="4"/>
+    <row r="423" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D423" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B424" s="4"/>
-      <c r="C424" s="4"/>
+    <row r="424" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D424" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B425" s="4"/>
-      <c r="C425" s="4"/>
+    <row r="425" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D425" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B426" s="4"/>
-      <c r="C426" s="4"/>
+    <row r="426" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D426" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B427" s="4"/>
-      <c r="C427" s="4"/>
+    <row r="427" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D427" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B428" s="4"/>
-      <c r="C428" s="4"/>
+    <row r="428" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D428" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B429" s="4"/>
-      <c r="C429" s="4"/>
+    <row r="429" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D429" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B430" s="4"/>
-      <c r="C430" s="4"/>
+    <row r="430" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D430" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B431" s="4"/>
-      <c r="C431" s="4"/>
+    <row r="431" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D431" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B432" s="4"/>
-      <c r="C432" s="4"/>
+    <row r="432" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D432" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B433" s="4"/>
-      <c r="C433" s="4"/>
+    <row r="433" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D433" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B434" s="4"/>
-      <c r="C434" s="4"/>
+    <row r="434" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D434" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B435" s="4"/>
-      <c r="C435" s="4"/>
+    <row r="435" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D435" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B436" s="4"/>
-      <c r="C436" s="4"/>
+    <row r="436" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D436" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B437" s="4"/>
-      <c r="C437" s="4"/>
+    <row r="437" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D437" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B438" s="4"/>
-      <c r="C438" s="4"/>
+    <row r="438" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D438" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B439" s="4"/>
-      <c r="C439" s="4"/>
+    <row r="439" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D439" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="4"/>
-      <c r="C440" s="4"/>
+    <row r="440" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D440" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B441" s="4"/>
-      <c r="C441" s="4"/>
+    <row r="441" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D441" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B442" s="4"/>
-      <c r="C442" s="4"/>
+    <row r="442" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D442" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B443" s="4"/>
-      <c r="C443" s="4"/>
+    <row r="443" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D443" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B444" s="4"/>
-      <c r="C444" s="4"/>
+    <row r="444" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D444" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B445" s="4"/>
-      <c r="C445" s="4"/>
+    <row r="445" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D445" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B446" s="4"/>
-      <c r="C446" s="4"/>
+    <row r="446" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D446" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B447" s="4"/>
-      <c r="C447" s="4"/>
+    <row r="447" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D447" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B448" s="4"/>
-      <c r="C448" s="4"/>
+    <row r="448" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D448" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B449" s="4"/>
-      <c r="C449" s="4"/>
+    <row r="449" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D449" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B450" s="4"/>
-      <c r="C450" s="4"/>
+    <row r="450" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D450" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B451" s="4"/>
-      <c r="C451" s="4"/>
+    <row r="451" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D451" s="4">
         <f t="shared" ref="D451:D514" si="7">C451-B451</f>
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B452" s="4"/>
-      <c r="C452" s="4"/>
+    <row r="452" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D452" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B453" s="4"/>
-      <c r="C453" s="4"/>
+    <row r="453" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D453" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B454" s="4"/>
-      <c r="C454" s="4"/>
+    <row r="454" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D454" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B455" s="4"/>
-      <c r="C455" s="4"/>
+    <row r="455" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D455" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B456" s="4"/>
-      <c r="C456" s="4"/>
+    <row r="456" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D456" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B457" s="4"/>
-      <c r="C457" s="4"/>
+    <row r="457" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D457" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B458" s="4"/>
-      <c r="C458" s="4"/>
+    <row r="458" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D458" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B459" s="4"/>
-      <c r="C459" s="4"/>
+    <row r="459" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D459" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B460" s="4"/>
-      <c r="C460" s="4"/>
+    <row r="460" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D460" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B461" s="4"/>
-      <c r="C461" s="4"/>
+    <row r="461" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D461" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B462" s="4"/>
-      <c r="C462" s="4"/>
+    <row r="462" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D462" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B463" s="4"/>
-      <c r="C463" s="4"/>
+    <row r="463" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D463" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B464" s="4"/>
-      <c r="C464" s="4"/>
+    <row r="464" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D464" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B465" s="4"/>
-      <c r="C465" s="4"/>
+    <row r="465" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D465" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B466" s="4"/>
-      <c r="C466" s="4"/>
+    <row r="466" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D466" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B467" s="4"/>
-      <c r="C467" s="4"/>
+    <row r="467" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D467" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B468" s="4"/>
-      <c r="C468" s="4"/>
+    <row r="468" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D468" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B469" s="4"/>
-      <c r="C469" s="4"/>
+    <row r="469" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D469" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B470" s="4"/>
-      <c r="C470" s="4"/>
+    <row r="470" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D470" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B471" s="4"/>
-      <c r="C471" s="4"/>
+    <row r="471" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D471" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B472" s="4"/>
-      <c r="C472" s="4"/>
+    <row r="472" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D472" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B473" s="4"/>
-      <c r="C473" s="4"/>
+    <row r="473" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D473" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B474" s="4"/>
-      <c r="C474" s="4"/>
+    <row r="474" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D474" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B475" s="4"/>
-      <c r="C475" s="4"/>
+    <row r="475" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D475" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B476" s="4"/>
-      <c r="C476" s="4"/>
+    <row r="476" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D476" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B477" s="4"/>
-      <c r="C477" s="4"/>
+    <row r="477" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D477" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B478" s="4"/>
-      <c r="C478" s="4"/>
+    <row r="478" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D478" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="4"/>
-      <c r="C479" s="4"/>
+    <row r="479" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D479" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B480" s="4"/>
-      <c r="C480" s="4"/>
+    <row r="480" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D480" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B481" s="4"/>
-      <c r="C481" s="4"/>
+    <row r="481" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D481" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B482" s="4"/>
-      <c r="C482" s="4"/>
+    <row r="482" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D482" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B483" s="4"/>
-      <c r="C483" s="4"/>
+    <row r="483" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D483" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B484" s="4"/>
-      <c r="C484" s="4"/>
+    <row r="484" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D484" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B485" s="4"/>
-      <c r="C485" s="4"/>
+    <row r="485" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D485" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B486" s="4"/>
-      <c r="C486" s="4"/>
+    <row r="486" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D486" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B487" s="4"/>
-      <c r="C487" s="4"/>
+    <row r="487" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D487" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B488" s="4"/>
-      <c r="C488" s="4"/>
+    <row r="488" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D488" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B489" s="4"/>
-      <c r="C489" s="4"/>
+    <row r="489" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D489" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B490" s="4"/>
-      <c r="C490" s="4"/>
+    <row r="490" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D490" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B491" s="4"/>
-      <c r="C491" s="4"/>
+    <row r="491" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D491" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B492" s="4"/>
-      <c r="C492" s="4"/>
+    <row r="492" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D492" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B493" s="4"/>
-      <c r="C493" s="4"/>
+    <row r="493" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D493" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B494" s="4"/>
-      <c r="C494" s="4"/>
+    <row r="494" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D494" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B495" s="4"/>
-      <c r="C495" s="4"/>
+    <row r="495" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D495" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B496" s="4"/>
-      <c r="C496" s="4"/>
+    <row r="496" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D496" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B497" s="4"/>
-      <c r="C497" s="4"/>
+    <row r="497" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D497" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B498" s="4"/>
-      <c r="C498" s="4"/>
+    <row r="498" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D498" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B499" s="4"/>
-      <c r="C499" s="4"/>
+    <row r="499" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D499" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B500" s="4"/>
-      <c r="C500" s="4"/>
+    <row r="500" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D500" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B501" s="4"/>
-      <c r="C501" s="4"/>
+    <row r="501" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D501" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B502" s="4"/>
-      <c r="C502" s="4"/>
+    <row r="502" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D502" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B503" s="4"/>
-      <c r="C503" s="4"/>
+    <row r="503" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D503" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B504" s="4"/>
-      <c r="C504" s="4"/>
+    <row r="504" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D504" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B505" s="4"/>
-      <c r="C505" s="4"/>
+    <row r="505" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D505" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="4"/>
-      <c r="C506" s="4"/>
+    <row r="506" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D506" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B507" s="4"/>
-      <c r="C507" s="4"/>
+    <row r="507" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D507" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B508" s="4"/>
-      <c r="C508" s="4"/>
+    <row r="508" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D508" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B509" s="4"/>
-      <c r="C509" s="4"/>
+    <row r="509" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D509" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B510" s="4"/>
-      <c r="C510" s="4"/>
+    <row r="510" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D510" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B511" s="4"/>
-      <c r="C511" s="4"/>
+    <row r="511" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D511" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B512" s="4"/>
-      <c r="C512" s="4"/>
+    <row r="512" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D512" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B513" s="4"/>
-      <c r="C513" s="4"/>
+    <row r="513" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D513" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B514" s="4"/>
-      <c r="C514" s="4"/>
+    <row r="514" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D514" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B515" s="4"/>
-      <c r="C515" s="4"/>
+    <row r="515" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D515" s="4">
         <f t="shared" ref="D515:D578" si="8">C515-B515</f>
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B516" s="4"/>
-      <c r="C516" s="4"/>
+    <row r="516" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D516" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B517" s="4"/>
-      <c r="C517" s="4"/>
+    <row r="517" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D517" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B518" s="4"/>
-      <c r="C518" s="4"/>
+    <row r="518" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D518" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B519" s="4"/>
-      <c r="C519" s="4"/>
+    <row r="519" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D519" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B520" s="4"/>
-      <c r="C520" s="4"/>
+    <row r="520" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D520" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B521" s="4"/>
-      <c r="C521" s="4"/>
+    <row r="521" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D521" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B522" s="4"/>
-      <c r="C522" s="4"/>
+    <row r="522" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D522" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B523" s="4"/>
-      <c r="C523" s="4"/>
+    <row r="523" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D523" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B524" s="4"/>
-      <c r="C524" s="4"/>
+    <row r="524" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D524" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B525" s="4"/>
-      <c r="C525" s="4"/>
+    <row r="525" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D525" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B526" s="4"/>
-      <c r="C526" s="4"/>
+    <row r="526" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D526" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B527" s="4"/>
-      <c r="C527" s="4"/>
+    <row r="527" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D527" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B528" s="4"/>
-      <c r="C528" s="4"/>
+    <row r="528" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D528" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B529" s="4"/>
-      <c r="C529" s="4"/>
+    <row r="529" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D529" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B530" s="4"/>
-      <c r="C530" s="4"/>
+    <row r="530" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D530" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B531" s="4"/>
-      <c r="C531" s="4"/>
+    <row r="531" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D531" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B532" s="4"/>
-      <c r="C532" s="4"/>
+    <row r="532" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D532" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B533" s="4"/>
-      <c r="C533" s="4"/>
+    <row r="533" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D533" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B534" s="4"/>
-      <c r="C534" s="4"/>
+    <row r="534" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D534" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B535" s="4"/>
-      <c r="C535" s="4"/>
+    <row r="535" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D535" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B536" s="4"/>
-      <c r="C536" s="4"/>
+    <row r="536" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D536" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B537" s="4"/>
-      <c r="C537" s="4"/>
+    <row r="537" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D537" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B538" s="4"/>
-      <c r="C538" s="4"/>
+    <row r="538" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D538" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="4"/>
-      <c r="C539" s="4"/>
+    <row r="539" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D539" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B540" s="4"/>
-      <c r="C540" s="4"/>
+    <row r="540" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D540" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B541" s="4"/>
-      <c r="C541" s="4"/>
+    <row r="541" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D541" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B542" s="4"/>
-      <c r="C542" s="4"/>
+    <row r="542" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D542" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B543" s="4"/>
-      <c r="C543" s="4"/>
+    <row r="543" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D543" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B544" s="4"/>
-      <c r="C544" s="4"/>
+    <row r="544" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D544" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B545" s="4"/>
-      <c r="C545" s="4"/>
+    <row r="545" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D545" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B546" s="4"/>
-      <c r="C546" s="4"/>
+    <row r="546" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D546" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B547" s="4"/>
-      <c r="C547" s="4"/>
+    <row r="547" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D547" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B548" s="4"/>
-      <c r="C548" s="4"/>
+    <row r="548" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D548" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B549" s="4"/>
-      <c r="C549" s="4"/>
+    <row r="549" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D549" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B550" s="4"/>
-      <c r="C550" s="4"/>
+    <row r="550" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D550" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B551" s="4"/>
-      <c r="C551" s="4"/>
+    <row r="551" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D551" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B552" s="4"/>
-      <c r="C552" s="4"/>
+    <row r="552" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D552" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B553" s="4"/>
-      <c r="C553" s="4"/>
+    <row r="553" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D553" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B554" s="4"/>
-      <c r="C554" s="4"/>
+    <row r="554" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D554" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B555" s="4"/>
-      <c r="C555" s="4"/>
+    <row r="555" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D555" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B556" s="4"/>
-      <c r="C556" s="4"/>
+    <row r="556" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D556" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B557" s="4"/>
-      <c r="C557" s="4"/>
+    <row r="557" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D557" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B558" s="4"/>
-      <c r="C558" s="4"/>
+    <row r="558" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D558" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B559" s="4"/>
-      <c r="C559" s="4"/>
+    <row r="559" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D559" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B560" s="4"/>
-      <c r="C560" s="4"/>
+    <row r="560" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D560" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B561" s="4"/>
-      <c r="C561" s="4"/>
+    <row r="561" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D561" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B562" s="4"/>
-      <c r="C562" s="4"/>
+    <row r="562" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D562" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B563" s="4"/>
-      <c r="C563" s="4"/>
+    <row r="563" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D563" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B564" s="4"/>
-      <c r="C564" s="4"/>
+    <row r="564" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D564" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B565" s="4"/>
-      <c r="C565" s="4"/>
+    <row r="565" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D565" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B566" s="4"/>
-      <c r="C566" s="4"/>
+    <row r="566" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D566" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B567" s="4"/>
-      <c r="C567" s="4"/>
+    <row r="567" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D567" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B568" s="4"/>
-      <c r="C568" s="4"/>
+    <row r="568" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D568" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B569" s="4"/>
-      <c r="C569" s="4"/>
+    <row r="569" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D569" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B570" s="4"/>
-      <c r="C570" s="4"/>
+    <row r="570" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D570" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B571" s="4"/>
-      <c r="C571" s="4"/>
+    <row r="571" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D571" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B572" s="4"/>
-      <c r="C572" s="4"/>
+    <row r="572" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D572" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B573" s="4"/>
-      <c r="C573" s="4"/>
+    <row r="573" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D573" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B574" s="4"/>
-      <c r="C574" s="4"/>
+    <row r="574" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D574" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B575" s="4"/>
-      <c r="C575" s="4"/>
+    <row r="575" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D575" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B576" s="4"/>
-      <c r="C576" s="4"/>
+    <row r="576" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D576" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="4"/>
-      <c r="C577" s="4"/>
+    <row r="577" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D577" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B578" s="4"/>
-      <c r="C578" s="4"/>
+    <row r="578" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D578" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B579" s="4"/>
-      <c r="C579" s="4"/>
+    <row r="579" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D579" s="4">
         <f t="shared" ref="D579:D642" si="9">C579-B579</f>
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B580" s="4"/>
-      <c r="C580" s="4"/>
+    <row r="580" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D580" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B581" s="4"/>
-      <c r="C581" s="4"/>
+    <row r="581" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D581" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B582" s="4"/>
-      <c r="C582" s="4"/>
+    <row r="582" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D582" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B583" s="4"/>
-      <c r="C583" s="4"/>
+    <row r="583" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D583" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B584" s="4"/>
-      <c r="C584" s="4"/>
+    <row r="584" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D584" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B585" s="4"/>
-      <c r="C585" s="4"/>
+    <row r="585" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D585" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B586" s="4"/>
-      <c r="C586" s="4"/>
+    <row r="586" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D586" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B587" s="4"/>
-      <c r="C587" s="4"/>
+    <row r="587" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D587" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B588" s="4"/>
-      <c r="C588" s="4"/>
+    <row r="588" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D588" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B589" s="4"/>
-      <c r="C589" s="4"/>
+    <row r="589" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D589" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B590" s="4"/>
-      <c r="C590" s="4"/>
+    <row r="590" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D590" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B591" s="4"/>
-      <c r="C591" s="4"/>
+    <row r="591" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D591" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B592" s="4"/>
-      <c r="C592" s="4"/>
+    <row r="592" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D592" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B593" s="4"/>
-      <c r="C593" s="4"/>
+    <row r="593" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D593" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B594" s="4"/>
-      <c r="C594" s="4"/>
+    <row r="594" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D594" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B595" s="4"/>
-      <c r="C595" s="4"/>
+    <row r="595" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D595" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B596" s="4"/>
-      <c r="C596" s="4"/>
+    <row r="596" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D596" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B597" s="4"/>
-      <c r="C597" s="4"/>
+    <row r="597" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D597" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B598" s="4"/>
-      <c r="C598" s="4"/>
+    <row r="598" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D598" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B599" s="4"/>
-      <c r="C599" s="4"/>
+    <row r="599" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D599" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="4"/>
-      <c r="C600" s="4"/>
+    <row r="600" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D600" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B601" s="4"/>
-      <c r="C601" s="4"/>
+    <row r="601" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D601" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B602" s="4"/>
-      <c r="C602" s="4"/>
+    <row r="602" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D602" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B603" s="4"/>
-      <c r="C603" s="4"/>
+    <row r="603" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D603" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B604" s="4"/>
-      <c r="C604" s="4"/>
+    <row r="604" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D604" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B605" s="4"/>
-      <c r="C605" s="4"/>
+    <row r="605" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D605" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B606" s="4"/>
-      <c r="C606" s="4"/>
+    <row r="606" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D606" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B607" s="4"/>
-      <c r="C607" s="4"/>
+    <row r="607" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D607" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B608" s="4"/>
-      <c r="C608" s="4"/>
+    <row r="608" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D608" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B609" s="4"/>
-      <c r="C609" s="4"/>
+    <row r="609" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D609" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B610" s="4"/>
-      <c r="C610" s="4"/>
+    <row r="610" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D610" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B611" s="4"/>
-      <c r="C611" s="4"/>
+    <row r="611" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D611" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B612" s="4"/>
-      <c r="C612" s="4"/>
+    <row r="612" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D612" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B613" s="4"/>
-      <c r="C613" s="4"/>
+    <row r="613" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D613" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B614" s="4"/>
-      <c r="C614" s="4"/>
+    <row r="614" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D614" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B615" s="4"/>
-      <c r="C615" s="4"/>
+    <row r="615" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D615" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B616" s="4"/>
-      <c r="C616" s="4"/>
+    <row r="616" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D616" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B617" s="4"/>
-      <c r="C617" s="4"/>
+    <row r="617" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D617" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B618" s="4"/>
-      <c r="C618" s="4"/>
+    <row r="618" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D618" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B619" s="4"/>
-      <c r="C619" s="4"/>
+    <row r="619" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D619" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B620" s="4"/>
-      <c r="C620" s="4"/>
+    <row r="620" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D620" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B621" s="4"/>
-      <c r="C621" s="4"/>
+    <row r="621" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D621" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B622" s="4"/>
-      <c r="C622" s="4"/>
+    <row r="622" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D622" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B623" s="4"/>
-      <c r="C623" s="4"/>
+    <row r="623" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D623" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B624" s="4"/>
-      <c r="C624" s="4"/>
+    <row r="624" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D624" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B625" s="4"/>
-      <c r="C625" s="4"/>
+    <row r="625" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D625" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B626" s="4"/>
-      <c r="C626" s="4"/>
+    <row r="626" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D626" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B627" s="4"/>
-      <c r="C627" s="4"/>
+    <row r="627" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D627" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B628" s="4"/>
-      <c r="C628" s="4"/>
+    <row r="628" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D628" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B629" s="4"/>
-      <c r="C629" s="4"/>
+    <row r="629" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D629" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B630" s="4"/>
-      <c r="C630" s="4"/>
+    <row r="630" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D630" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B631" s="4"/>
-      <c r="C631" s="4"/>
+    <row r="631" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D631" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B632" s="4"/>
-      <c r="C632" s="4"/>
+    <row r="632" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D632" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B633" s="4"/>
-      <c r="C633" s="4"/>
+    <row r="633" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D633" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B634" s="4"/>
-      <c r="C634" s="4"/>
+    <row r="634" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D634" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B635" s="4"/>
-      <c r="C635" s="4"/>
+    <row r="635" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D635" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B636" s="4"/>
-      <c r="C636" s="4"/>
+    <row r="636" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D636" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="4"/>
-      <c r="C637" s="4"/>
+    <row r="637" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D637" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B638" s="4"/>
-      <c r="C638" s="4"/>
+    <row r="638" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D638" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B639" s="4"/>
-      <c r="C639" s="4"/>
+    <row r="639" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D639" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B640" s="4"/>
-      <c r="C640" s="4"/>
+    <row r="640" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D640" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B641" s="4"/>
-      <c r="C641" s="4"/>
+    <row r="641" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D641" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B642" s="4"/>
-      <c r="C642" s="4"/>
+    <row r="642" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D642" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B643" s="4"/>
-      <c r="C643" s="4"/>
+    <row r="643" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D643" s="4">
         <f t="shared" ref="D643:D706" si="10">C643-B643</f>
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B644" s="4"/>
-      <c r="C644" s="4"/>
+    <row r="644" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D644" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B645" s="4"/>
-      <c r="C645" s="4"/>
+    <row r="645" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D645" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B646" s="4"/>
-      <c r="C646" s="4"/>
+    <row r="646" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D646" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B647" s="4"/>
-      <c r="C647" s="4"/>
+    <row r="647" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D647" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B648" s="4"/>
-      <c r="C648" s="4"/>
+    <row r="648" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D648" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="4"/>
-      <c r="C649" s="4"/>
+    <row r="649" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D649" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B650" s="4"/>
-      <c r="C650" s="4"/>
+    <row r="650" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D650" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B651" s="4"/>
-      <c r="C651" s="4"/>
+    <row r="651" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D651" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B652" s="4"/>
-      <c r="C652" s="4"/>
+    <row r="652" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D652" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B653" s="4"/>
-      <c r="C653" s="4"/>
+    <row r="653" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D653" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B654" s="4"/>
-      <c r="C654" s="4"/>
+    <row r="654" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D654" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B655" s="4"/>
-      <c r="C655" s="4"/>
+    <row r="655" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D655" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B656" s="4"/>
-      <c r="C656" s="4"/>
+    <row r="656" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D656" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B657" s="4"/>
-      <c r="C657" s="4"/>
+    <row r="657" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D657" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B658" s="4"/>
-      <c r="C658" s="4"/>
+    <row r="658" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D658" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B659" s="4"/>
-      <c r="C659" s="4"/>
+    <row r="659" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D659" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B660" s="4"/>
-      <c r="C660" s="4"/>
+    <row r="660" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D660" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B661" s="4"/>
-      <c r="C661" s="4"/>
+    <row r="661" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D661" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B662" s="4"/>
-      <c r="C662" s="4"/>
+    <row r="662" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D662" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B663" s="4"/>
-      <c r="C663" s="4"/>
+    <row r="663" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D663" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B664" s="4"/>
-      <c r="C664" s="4"/>
+    <row r="664" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D664" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B665" s="4"/>
-      <c r="C665" s="4"/>
+    <row r="665" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D665" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B666" s="4"/>
-      <c r="C666" s="4"/>
+    <row r="666" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D666" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B667" s="4"/>
-      <c r="C667" s="4"/>
+    <row r="667" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D667" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B668" s="4"/>
-      <c r="C668" s="4"/>
+    <row r="668" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D668" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B669" s="4"/>
-      <c r="C669" s="4"/>
+    <row r="669" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D669" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B670" s="4"/>
-      <c r="C670" s="4"/>
+    <row r="670" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D670" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B671" s="4"/>
-      <c r="C671" s="4"/>
+    <row r="671" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D671" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B672" s="4"/>
-      <c r="C672" s="4"/>
+    <row r="672" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D672" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B673" s="4"/>
-      <c r="C673" s="4"/>
+    <row r="673" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D673" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B674" s="4"/>
-      <c r="C674" s="4"/>
+    <row r="674" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D674" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="4"/>
-      <c r="C675" s="4"/>
+    <row r="675" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D675" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B676" s="4"/>
-      <c r="C676" s="4"/>
+    <row r="676" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D676" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B677" s="4"/>
-      <c r="C677" s="4"/>
+    <row r="677" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D677" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B678" s="4"/>
-      <c r="C678" s="4"/>
+    <row r="678" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D678" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B679" s="4"/>
-      <c r="C679" s="4"/>
+    <row r="679" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D679" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B680" s="4"/>
-      <c r="C680" s="4"/>
+    <row r="680" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D680" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B681" s="4"/>
-      <c r="C681" s="4"/>
+    <row r="681" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D681" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B682" s="4"/>
-      <c r="C682" s="4"/>
+    <row r="682" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D682" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B683" s="4"/>
-      <c r="C683" s="4"/>
+    <row r="683" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D683" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B684" s="4"/>
-      <c r="C684" s="4"/>
+    <row r="684" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D684" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B685" s="4"/>
-      <c r="C685" s="4"/>
+    <row r="685" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D685" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B686" s="4"/>
-      <c r="C686" s="4"/>
+    <row r="686" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D686" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B687" s="4"/>
-      <c r="C687" s="4"/>
+    <row r="687" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D687" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B688" s="4"/>
-      <c r="C688" s="4"/>
+    <row r="688" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D688" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B689" s="4"/>
-      <c r="C689" s="4"/>
+    <row r="689" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D689" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B690" s="4"/>
-      <c r="C690" s="4"/>
+    <row r="690" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D690" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B691" s="4"/>
-      <c r="C691" s="4"/>
+    <row r="691" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D691" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B692" s="4"/>
-      <c r="C692" s="4"/>
+    <row r="692" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D692" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B693" s="4"/>
-      <c r="C693" s="4"/>
+    <row r="693" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D693" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B694" s="4"/>
-      <c r="C694" s="4"/>
+    <row r="694" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D694" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B695" s="4"/>
-      <c r="C695" s="4"/>
+    <row r="695" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D695" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B696" s="4"/>
-      <c r="C696" s="4"/>
+    <row r="696" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D696" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B697" s="4"/>
-      <c r="C697" s="4"/>
+    <row r="697" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D697" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B698" s="4"/>
-      <c r="C698" s="4"/>
+    <row r="698" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D698" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B699" s="4"/>
-      <c r="C699" s="4"/>
+    <row r="699" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D699" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B700" s="4"/>
-      <c r="C700" s="4"/>
+    <row r="700" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D700" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B701" s="4"/>
-      <c r="C701" s="4"/>
+    <row r="701" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D701" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B702" s="4"/>
-      <c r="C702" s="4"/>
+    <row r="702" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D702" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B703" s="4"/>
-      <c r="C703" s="4"/>
+    <row r="703" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D703" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="4"/>
-      <c r="C704" s="4"/>
+    <row r="704" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D704" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B705" s="4"/>
-      <c r="C705" s="4"/>
+    <row r="705" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D705" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B706" s="4"/>
-      <c r="C706" s="4"/>
+    <row r="706" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D706" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B707" s="4"/>
-      <c r="C707" s="4"/>
+    <row r="707" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D707" s="4">
         <f t="shared" ref="D707:D734" si="11">C707-B707</f>
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B708" s="4"/>
-      <c r="C708" s="4"/>
+    <row r="708" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D708" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B709" s="4"/>
-      <c r="C709" s="4"/>
+    <row r="709" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D709" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B710" s="4"/>
-      <c r="C710" s="4"/>
+    <row r="710" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D710" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B711" s="4"/>
-      <c r="C711" s="4"/>
+    <row r="711" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D711" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B712" s="4"/>
-      <c r="C712" s="4"/>
+    <row r="712" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D712" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B713" s="4"/>
-      <c r="C713" s="4"/>
+    <row r="713" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D713" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B714" s="4"/>
-      <c r="C714" s="4"/>
+    <row r="714" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D714" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B715" s="4"/>
-      <c r="C715" s="4"/>
+    <row r="715" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D715" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B716" s="4"/>
-      <c r="C716" s="4"/>
+    <row r="716" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D716" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B717" s="4"/>
-      <c r="C717" s="4"/>
+    <row r="717" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D717" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B718" s="4"/>
-      <c r="C718" s="4"/>
+    <row r="718" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D718" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B719" s="4"/>
-      <c r="C719" s="4"/>
+    <row r="719" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D719" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B720" s="4"/>
-      <c r="C720" s="4"/>
+    <row r="720" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D720" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="4"/>
-      <c r="C721" s="4"/>
+    <row r="721" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D721" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B722" s="4"/>
-      <c r="C722" s="4"/>
+    <row r="722" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D722" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B723" s="4"/>
-      <c r="C723" s="4"/>
+    <row r="723" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D723" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B724" s="4"/>
-      <c r="C724" s="4"/>
+    <row r="724" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D724" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B725" s="4"/>
-      <c r="C725" s="4"/>
+    <row r="725" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D725" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B726" s="4"/>
-      <c r="C726" s="4"/>
+    <row r="726" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D726" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B727" s="4"/>
-      <c r="C727" s="4"/>
+    <row r="727" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D727" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B728" s="4"/>
-      <c r="C728" s="4"/>
+    <row r="728" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D728" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B729" s="4"/>
-      <c r="C729" s="4"/>
+    <row r="729" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D729" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B730" s="4"/>
-      <c r="C730" s="4"/>
+    <row r="730" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D730" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B731" s="4"/>
-      <c r="C731" s="4"/>
+    <row r="731" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D731" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B732" s="4"/>
-      <c r="C732" s="4"/>
+    <row r="732" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D732" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B733" s="4"/>
-      <c r="C733" s="4"/>
+    <row r="733" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D733" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B734" s="4"/>
-      <c r="C734" s="4"/>
+    <row r="734" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D734" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="735" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B735" s="4"/>
-      <c r="C735" s="4"/>
-    </row>
-    <row r="736" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B736" s="4"/>
-      <c r="C736" s="4"/>
-    </row>
-    <row r="737" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B737" s="4"/>
-      <c r="C737" s="4"/>
-    </row>
-    <row r="738" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B738" s="4"/>
-      <c r="C738" s="4"/>
-    </row>
-    <row r="739" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B739" s="4"/>
-      <c r="C739" s="4"/>
-    </row>
-    <row r="740" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B740" s="4"/>
-      <c r="C740" s="4"/>
-    </row>
-    <row r="741" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="4"/>
-      <c r="C741" s="4"/>
-    </row>
-    <row r="742" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B742" s="4"/>
-      <c r="C742" s="4"/>
-    </row>
-    <row r="743" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B743" s="4"/>
-      <c r="C743" s="4"/>
-    </row>
-    <row r="744" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B744" s="4"/>
-      <c r="C744" s="4"/>
-    </row>
-    <row r="745" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B745" s="4"/>
-      <c r="C745" s="4"/>
-    </row>
-    <row r="746" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B746" s="4"/>
-      <c r="C746" s="4"/>
-    </row>
-    <row r="747" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B747" s="4"/>
-      <c r="C747" s="4"/>
-    </row>
-    <row r="748" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B748" s="4"/>
-      <c r="C748" s="4"/>
-    </row>
-    <row r="749" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B749" s="4"/>
-      <c r="C749" s="4"/>
-    </row>
-    <row r="750" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B750" s="4"/>
-      <c r="C750" s="4"/>
-    </row>
-    <row r="751" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B751" s="4"/>
-      <c r="C751" s="4"/>
-    </row>
-    <row r="752" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B752" s="4"/>
-      <c r="C752" s="4"/>
-    </row>
-    <row r="753" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B753" s="4"/>
-      <c r="C753" s="4"/>
-    </row>
-    <row r="754" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B754" s="4"/>
-      <c r="C754" s="4"/>
-    </row>
-    <row r="755" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B755" s="4"/>
-      <c r="C755" s="4"/>
-    </row>
-    <row r="756" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B756" s="4"/>
-      <c r="C756" s="4"/>
-    </row>
-    <row r="757" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B757" s="4"/>
-      <c r="C757" s="4"/>
-    </row>
-    <row r="758" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B758" s="4"/>
-      <c r="C758" s="4"/>
-    </row>
-    <row r="759" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B759" s="4"/>
-      <c r="C759" s="4"/>
-    </row>
-    <row r="760" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B760" s="4"/>
-      <c r="C760" s="4"/>
-    </row>
-    <row r="761" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B761" s="4"/>
-      <c r="C761" s="4"/>
-    </row>
-    <row r="762" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B762" s="4"/>
-      <c r="C762" s="4"/>
-    </row>
-    <row r="763" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B763" s="4"/>
-      <c r="C763" s="4"/>
-    </row>
-    <row r="764" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B764" s="4"/>
-      <c r="C764" s="4"/>
-    </row>
-    <row r="765" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B765" s="4"/>
-      <c r="C765" s="4"/>
-    </row>
-    <row r="766" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B766" s="4"/>
-      <c r="C766" s="4"/>
-    </row>
-    <row r="767" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B767" s="4"/>
-      <c r="C767" s="4"/>
-    </row>
-    <row r="768" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B768" s="4"/>
-      <c r="C768" s="4"/>
-    </row>
-    <row r="769" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B769" s="4"/>
-      <c r="C769" s="4"/>
-    </row>
-    <row r="770" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B770" s="4"/>
-      <c r="C770" s="4"/>
-    </row>
-    <row r="771" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B771" s="4"/>
-      <c r="C771" s="4"/>
-    </row>
-    <row r="772" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B772" s="4"/>
-      <c r="C772" s="4"/>
-    </row>
-    <row r="773" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B773" s="4"/>
-      <c r="C773" s="4"/>
-    </row>
-    <row r="774" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B774" s="4"/>
-      <c r="C774" s="4"/>
-    </row>
-    <row r="775" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B775" s="4"/>
-      <c r="C775" s="4"/>
-    </row>
-    <row r="776" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B776" s="4"/>
-      <c r="C776" s="4"/>
-    </row>
-    <row r="777" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B777" s="4"/>
-      <c r="C777" s="4"/>
-    </row>
-    <row r="778" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B778" s="4"/>
-      <c r="C778" s="4"/>
-    </row>
-    <row r="779" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B779" s="4"/>
-      <c r="C779" s="4"/>
-    </row>
-    <row r="780" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B780" s="4"/>
-      <c r="C780" s="4"/>
-    </row>
-    <row r="781" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B781" s="4"/>
-      <c r="C781" s="4"/>
-    </row>
-    <row r="782" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="4"/>
-      <c r="C782" s="4"/>
-    </row>
-    <row r="783" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B783" s="4"/>
-      <c r="C783" s="4"/>
-    </row>
-    <row r="784" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B784" s="4"/>
-      <c r="C784" s="4"/>
-    </row>
-    <row r="785" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B785" s="4"/>
-      <c r="C785" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:H734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -930,9 +930,12 @@
       <c r="B18" s="4">
         <v>0.56597222222222221</v>
       </c>
+      <c r="C18" s="4">
+        <v>0.62986111111111109</v>
+      </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
-        <v>-0.56597222222222221</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>11</v>

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Modifications des styles css dans la page d'accueil.</t>
+  </si>
+  <si>
+    <t>Creation des differents types de catégories dans la page d'accueil.</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
   <dimension ref="A1:H734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -948,12 +951,27 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44966</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.66527777777777775</v>
+      </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2222222222222143E-2</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>8</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Creation des differents types de catégories dans la page d'accueil.</t>
+  </si>
+  <si>
+    <t>Continuation du site web, quelques erreurs sont apparues. Je les répare.</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
   <dimension ref="A1:H734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -975,12 +978,24 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44978</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.67499999999999993</v>
+      </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.67499999999999993</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>8</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -133,6 +133,9 @@
   <si>
     <t>Continuation du site web, quelques erreurs sont apparues. Je les répare.</t>
   </si>
+  <si>
+    <t xml:space="preserve">http://flexboxgrid.com/ </t>
+  </si>
 </sst>
 </file>
 
@@ -141,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +155,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,10 +206,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -221,8 +233,12 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -503,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H734"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -905,7 +921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44959</v>
       </c>
@@ -929,7 +945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44966</v>
       </c>
@@ -953,7 +969,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44966</v>
       </c>
@@ -977,16 +993,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44978</v>
       </c>
       <c r="B20" s="4">
         <v>0.67499999999999993</v>
       </c>
+      <c r="C20" s="4">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>-0.67499999999999993</v>
+        <v>2.9861111111111227E-2</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>11</v>
@@ -998,73 +1017,88 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44979</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.60069444444444442</v>
+      </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-0.60069444444444442</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5283,7 +5317,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H21" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -135,6 +135,17 @@
   </si>
   <si>
     <t xml:space="preserve">http://flexboxgrid.com/ </t>
+  </si>
+  <si>
+    <t>Récreation du site à partir de l'exemple d'une page internet</t>
+  </si>
+  <si>
+    <t>Prof
+https://getbootstrap.com/docs/5.0/layout/grid/
+https://getbootstrap.com/docs/5.2/utilities/flex/</t>
+  </si>
+  <si>
+    <t>Je continue le navbar du site</t>
   </si>
 </sst>
 </file>
@@ -520,7 +531,7 @@
   <dimension ref="A1:H734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1024,30 +1035,72 @@
       <c r="B21" s="4">
         <v>0.60069444444444442</v>
       </c>
+      <c r="C21" s="4">
+        <v>0.65486111111111112</v>
+      </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
-        <v>-0.60069444444444442</v>
+        <v>5.4166666666666696E-2</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="H21" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44979</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.65486111111111112</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.70416666666666661</v>
+      </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.9305555555555491E-2</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>44980</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.56527777777777777</v>
+      </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.56527777777777777</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1055,11 +1108,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -531,7 +531,7 @@
   <dimension ref="A1:H734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1089,9 +1089,12 @@
       <c r="B23" s="4">
         <v>0.56527777777777777</v>
       </c>
+      <c r="C23" s="4">
+        <v>0.63402777777777775</v>
+      </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
-        <v>-0.56527777777777777</v>
+        <v>6.8749999999999978E-2</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>11</v>

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Je continue le navbar du site</t>
+  </si>
+  <si>
+    <t>Je finalise la Navbar</t>
   </si>
 </sst>
 </file>
@@ -530,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H734"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1124,13 +1127,31 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44985</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.9861111111111227E-2</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Je finalise la Navbar</t>
+  </si>
+  <si>
+    <t>Je finalise les cathegories</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
   <dimension ref="A1:H734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1148,16 +1151,28 @@
         <v>11</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>44986</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.59375</v>
+      </c>
       <c r="D27" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.59375</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -537,7 +537,7 @@
   <dimension ref="A1:H734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1164,9 +1164,12 @@
       <c r="B27" s="4">
         <v>0.59375</v>
       </c>
+      <c r="C27" s="4">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="D27" s="4">
         <f t="shared" si="0"/>
-        <v>-0.59375</v>
+        <v>0.10763888888888884</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>11</v>

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -151,7 +151,7 @@
     <t>Je finalise la Navbar</t>
   </si>
   <si>
-    <t>Je finalise les cathegories</t>
+    <t>Je finalise les catégories</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
   <dimension ref="A1:H734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1179,9 +1179,15 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44991</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.33958333333333335</v>
+      </c>
       <c r="D28" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.33958333333333335</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>Je finalise les catégories</t>
+  </si>
+  <si>
+    <t>Creation de l'index.</t>
+  </si>
+  <si>
+    <t>Modification de l'index ainsi que du MVC</t>
   </si>
 </sst>
 </file>
@@ -537,7 +543,7 @@
   <dimension ref="A1:H734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1191,15 +1197,48 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>44992</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.70347222222222217</v>
+      </c>
       <c r="D29" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.9861111111111005E-2</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>44993</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.59791666666666665</v>
+      </c>
       <c r="D30" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.59791666666666665</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Modification de l'index ainsi que du MVC</t>
+  </si>
+  <si>
+    <t>Insertion des données des vetements dans le php</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
   <dimension ref="A1:H734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1227,9 +1230,12 @@
       <c r="B30" s="4">
         <v>0.59791666666666665</v>
       </c>
+      <c r="C30" s="4">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="D30" s="4">
         <f t="shared" si="0"/>
-        <v>-0.59791666666666665</v>
+        <v>0.10347222222222219</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>11</v>
@@ -1242,9 +1248,24 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>44994</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.55347222222222225</v>
+      </c>
       <c r="D31" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.55347222222222225</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -546,7 +546,7 @@
   <dimension ref="A1:H734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1254,9 +1254,12 @@
       <c r="B31" s="4">
         <v>0.55347222222222225</v>
       </c>
+      <c r="C31" s="4">
+        <v>0.62638888888888888</v>
+      </c>
       <c r="D31" s="4">
         <f t="shared" si="0"/>
-        <v>-0.55347222222222225</v>
+        <v>7.291666666666663E-2</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>11</v>
@@ -1269,9 +1272,24 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>44995</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.41597222222222219</v>
+      </c>
       <c r="D32" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.41597222222222219</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -546,7 +546,7 @@
   <dimension ref="A1:H734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1278,9 +1278,12 @@
       <c r="B32" s="4">
         <v>0.41597222222222219</v>
       </c>
+      <c r="C32" s="4">
+        <v>0.50486111111111109</v>
+      </c>
       <c r="D32" s="4">
         <f t="shared" si="0"/>
-        <v>-0.41597222222222219</v>
+        <v>8.8888888888888906E-2</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>11</v>

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Insertion des données des vetements dans le php</t>
+  </si>
+  <si>
+    <t>Affichage des vetements</t>
   </si>
 </sst>
 </file>
@@ -545,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H734"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1295,97 +1298,115 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>44999</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.67847222222222225</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="D33" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.6388888888888906E-2</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D44" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D48" s="4">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Affichage des vetements</t>
+  </si>
+  <si>
+    <t>Mise en place du bouton Panier dans chaque vetement</t>
   </si>
 </sst>
 </file>
@@ -549,7 +552,7 @@
   <dimension ref="A1:H734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1323,9 +1326,27 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>45000</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="D34" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="D34" si="1">C34-B34</f>
+        <v>7.7777777777777835E-2</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1522,4009 +1543,4009 @@
     </row>
     <row r="67" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D67" s="4">
-        <f t="shared" ref="D67:D130" si="1">C67-B67</f>
+        <f t="shared" ref="D67:D130" si="2">C67-B67</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D68" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D69" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D71" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D72" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D73" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D74" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D75" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D76" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D77" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D78" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D79" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D80" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D81" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D82" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D83" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D84" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D85" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D86" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D87" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D88" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D89" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D90" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D91" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D92" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D93" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D94" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D95" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D96" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D97" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D98" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D99" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D100" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D101" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D102" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D103" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D104" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D105" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D106" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D107" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D108" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D109" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D110" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D111" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D112" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D113" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D114" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D115" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D116" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D117" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D118" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D119" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D120" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D121" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D122" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D123" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D124" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D125" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D126" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D127" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D128" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D129" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D130" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D131" s="4">
-        <f t="shared" ref="D131:D194" si="2">C131-B131</f>
+        <f t="shared" ref="D131:D194" si="3">C131-B131</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D132" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D133" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D134" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D135" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D136" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D137" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D138" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D139" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D140" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D141" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D142" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D143" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D144" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D145" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D146" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D147" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D148" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D149" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D150" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D151" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D152" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D153" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D154" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D155" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D156" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D157" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D158" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D159" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D160" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D161" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D162" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D163" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D164" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D165" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D166" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D167" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D168" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D169" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D170" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D171" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D172" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D173" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D174" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D175" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D176" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D177" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D178" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D179" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D180" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D181" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D182" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D183" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D184" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D185" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D186" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D187" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D188" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D189" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D190" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D191" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D192" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D193" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D194" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D195" s="4">
-        <f t="shared" ref="D195:D258" si="3">C195-B195</f>
+        <f t="shared" ref="D195:D258" si="4">C195-B195</f>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D196" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D197" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D198" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D199" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D200" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D201" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D202" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D203" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D204" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D205" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D206" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D207" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D208" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D209" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D210" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D211" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D212" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D213" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D214" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D215" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D216" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D217" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D218" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D219" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D220" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D221" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D222" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D223" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D224" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D225" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D226" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D227" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D228" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D229" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D230" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D231" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D232" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D233" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D234" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D235" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D236" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D237" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D238" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D239" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D240" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D241" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D242" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D243" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D244" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D245" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D246" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D247" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D248" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D249" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D250" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D251" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D252" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D253" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D254" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D255" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="256" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D256" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D257" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D258" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D259" s="4">
-        <f t="shared" ref="D259:D322" si="4">C259-B259</f>
+        <f t="shared" ref="D259:D322" si="5">C259-B259</f>
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D260" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D261" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D262" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D263" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D264" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D265" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D266" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D267" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D268" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D269" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D270" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D271" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="272" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D272" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D273" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="274" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D274" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D275" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="276" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D276" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="277" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D277" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D278" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="279" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D279" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D280" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="281" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D281" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="282" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D282" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="283" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D283" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="284" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D284" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="285" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D285" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="286" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D286" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D287" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D288" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="289" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D289" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D290" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="291" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D291" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="292" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D292" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="293" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D293" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="294" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D294" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="295" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D295" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D296" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="297" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D297" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="298" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D298" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D299" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="300" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D300" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D301" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="302" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D302" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="303" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D303" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="304" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D304" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="305" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D305" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="306" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D306" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="307" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D307" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="308" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D308" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="309" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D309" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D310" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="311" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D311" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="312" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D312" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="313" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D313" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="314" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D314" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="315" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D315" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="316" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D316" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="317" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D317" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="318" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D318" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="319" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D319" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="320" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D320" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="321" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D321" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="322" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D322" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="323" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D323" s="4">
-        <f t="shared" ref="D323:D386" si="5">C323-B323</f>
+        <f t="shared" ref="D323:D386" si="6">C323-B323</f>
         <v>0</v>
       </c>
     </row>
     <row r="324" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D324" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="325" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D325" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="326" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D326" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="327" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D327" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="328" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D328" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="329" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D329" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="330" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D330" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="331" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D331" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="332" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D332" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="333" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D333" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="334" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D334" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="335" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D335" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="336" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D336" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="337" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D337" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="338" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D338" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="339" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D339" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="340" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D340" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="341" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D341" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="342" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D342" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="343" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D343" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="344" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D344" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="345" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D345" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="346" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D346" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="347" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D347" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="348" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D348" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="349" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D349" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="350" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D350" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="351" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D351" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="352" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D352" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="353" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D353" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="354" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D354" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="355" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D355" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="356" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D356" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="357" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D357" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="358" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D358" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="359" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D359" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="360" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D360" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="361" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D361" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="362" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D362" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="363" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D363" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="364" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D364" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="365" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D365" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="366" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D366" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="367" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D367" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="368" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D368" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="369" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D369" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="370" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D370" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="371" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D371" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="372" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D372" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="373" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D373" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="374" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D374" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="375" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D375" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="376" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D376" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="377" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D377" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="378" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D378" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="379" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D379" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="380" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D380" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="381" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D381" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="382" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D382" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="383" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D383" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="384" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D384" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="385" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D385" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="386" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D386" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="387" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D387" s="4">
-        <f t="shared" ref="D387:D450" si="6">C387-B387</f>
+        <f t="shared" ref="D387:D450" si="7">C387-B387</f>
         <v>0</v>
       </c>
     </row>
     <row r="388" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D388" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="389" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D389" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="390" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D390" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="391" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D391" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="392" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D392" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="393" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D393" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="394" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D394" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="395" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D395" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="396" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D396" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="397" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D397" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="398" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D398" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="399" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D399" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="400" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D400" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="401" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D401" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="402" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D402" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="403" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D403" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="404" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D404" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="405" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D405" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="406" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D406" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="407" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D407" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="408" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D408" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="409" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D409" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="410" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D410" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="411" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D411" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="412" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D412" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="413" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D413" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="414" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D414" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="415" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D415" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="416" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D416" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="417" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D417" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="418" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D418" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="419" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D419" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="420" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D420" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="421" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D421" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="422" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D422" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="423" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D423" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="424" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D424" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="425" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D425" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="426" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D426" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="427" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D427" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="428" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D428" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="429" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D429" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="430" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D430" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="431" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D431" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="432" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D432" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="433" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D433" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="434" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D434" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="435" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D435" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="436" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D436" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="437" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D437" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="438" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D438" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="439" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D439" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="440" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D440" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="441" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D441" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="442" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D442" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="443" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D443" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="444" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D444" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="445" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D445" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="446" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D446" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="447" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D447" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="448" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D448" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="449" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D449" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="450" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D450" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="451" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D451" s="4">
-        <f t="shared" ref="D451:D514" si="7">C451-B451</f>
+        <f t="shared" ref="D451:D514" si="8">C451-B451</f>
         <v>0</v>
       </c>
     </row>
     <row r="452" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D452" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="453" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D453" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="454" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D454" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="455" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D455" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="456" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D456" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="457" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D457" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="458" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D458" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="459" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D459" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="460" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D460" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="461" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D461" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="462" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D462" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="463" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D463" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="464" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D464" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="465" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D465" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="466" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D466" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="467" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D467" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="468" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D468" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="469" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D469" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="470" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D470" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="471" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D471" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="472" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D472" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="473" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D473" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="474" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D474" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="475" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D475" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="476" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D476" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="477" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D477" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="478" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D478" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="479" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D479" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="480" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D480" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="481" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D481" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="482" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D482" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="483" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D483" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="484" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D484" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="485" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D485" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="486" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D486" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="487" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D487" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="488" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D488" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="489" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D489" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="490" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D490" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="491" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D491" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="492" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D492" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="493" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D493" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="494" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D494" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="495" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D495" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="496" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D496" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="497" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D497" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="498" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D498" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="499" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D499" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="500" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D500" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="501" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D501" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="502" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D502" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="503" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D503" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="504" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D504" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="505" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D505" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="506" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D506" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="507" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D507" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="508" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D508" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="509" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D509" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="510" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D510" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="511" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D511" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="512" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D512" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="513" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D513" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="514" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D514" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="515" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D515" s="4">
-        <f t="shared" ref="D515:D578" si="8">C515-B515</f>
+        <f t="shared" ref="D515:D578" si="9">C515-B515</f>
         <v>0</v>
       </c>
     </row>
     <row r="516" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D516" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="517" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D517" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="518" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D518" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="519" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D519" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="520" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D520" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="521" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D521" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="522" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D522" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="523" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D523" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="524" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D524" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="525" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D525" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="526" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D526" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="527" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D527" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="528" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D528" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="529" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D529" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="530" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D530" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="531" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D531" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="532" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D532" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="533" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D533" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="534" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D534" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="535" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D535" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="536" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D536" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="537" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D537" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="538" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D538" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="539" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D539" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="540" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D540" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="541" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D541" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="542" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D542" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="543" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D543" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="544" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D544" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="545" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D545" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="546" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D546" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="547" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D547" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="548" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D548" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="549" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D549" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="550" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D550" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="551" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D551" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="552" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D552" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="553" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D553" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="554" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D554" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="555" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D555" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="556" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D556" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="557" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D557" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="558" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D558" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="559" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D559" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="560" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D560" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="561" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D561" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="562" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D562" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="563" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D563" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="564" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D564" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="565" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D565" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="566" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D566" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="567" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D567" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="568" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D568" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="569" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D569" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="570" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D570" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="571" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D571" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="572" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D572" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="573" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D573" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="574" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D574" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="575" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D575" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="576" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D576" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="577" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D577" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="578" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D578" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="579" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D579" s="4">
-        <f t="shared" ref="D579:D642" si="9">C579-B579</f>
+        <f t="shared" ref="D579:D642" si="10">C579-B579</f>
         <v>0</v>
       </c>
     </row>
     <row r="580" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D580" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="581" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D581" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="582" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D582" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="583" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D583" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="584" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D584" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="585" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D585" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="586" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D586" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="587" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D587" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="588" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D588" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="589" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D589" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="590" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D590" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="591" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D591" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="592" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D592" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="593" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D593" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="594" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D594" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="595" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D595" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="596" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D596" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="597" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D597" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="598" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D598" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="599" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D599" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="600" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D600" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="601" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D601" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="602" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D602" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="603" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D603" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="604" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D604" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="605" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D605" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="606" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D606" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="607" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D607" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="608" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D608" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="609" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D609" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="610" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D610" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="611" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D611" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="612" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D612" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="613" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D613" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="614" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D614" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="615" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D615" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="616" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D616" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="617" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D617" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="618" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D618" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="619" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D619" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="620" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D620" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="621" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D621" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="622" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D622" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="623" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D623" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="624" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D624" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="625" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D625" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="626" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D626" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="627" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D627" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="628" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D628" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="629" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D629" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="630" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D630" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="631" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D631" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="632" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D632" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="633" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D633" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="634" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D634" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="635" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D635" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="636" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D636" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="637" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D637" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="638" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D638" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="639" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D639" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="640" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D640" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="641" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D641" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="642" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D642" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="643" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D643" s="4">
-        <f t="shared" ref="D643:D706" si="10">C643-B643</f>
+        <f t="shared" ref="D643:D706" si="11">C643-B643</f>
         <v>0</v>
       </c>
     </row>
     <row r="644" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D644" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="645" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D645" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="646" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D646" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="647" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D647" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="648" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D648" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="649" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D649" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="650" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D650" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="651" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D651" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="652" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D652" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="653" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D653" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="654" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D654" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="655" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D655" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="656" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D656" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="657" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D657" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="658" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D658" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="659" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D659" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="660" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D660" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="661" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D661" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="662" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D662" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="663" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D663" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="664" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D664" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="665" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D665" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="666" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D666" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="667" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D667" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="668" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D668" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="669" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D669" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="670" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D670" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="671" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D671" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="672" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D672" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="673" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D673" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="674" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D674" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="675" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D675" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="676" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D676" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="677" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D677" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="678" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D678" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="679" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D679" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="680" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D680" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="681" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D681" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="682" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D682" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="683" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D683" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="684" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D684" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="685" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D685" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="686" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D686" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="687" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D687" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="688" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D688" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="689" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D689" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="690" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D690" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="691" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D691" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="692" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D692" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="693" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D693" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="694" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D694" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="695" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D695" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="696" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D696" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="697" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D697" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="698" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D698" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="699" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D699" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="700" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D700" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="701" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D701" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="702" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D702" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="703" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D703" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="704" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D704" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="705" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D705" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="706" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D706" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="707" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D707" s="4">
-        <f t="shared" ref="D707:D734" si="11">C707-B707</f>
+        <f t="shared" ref="D707:D734" si="12">C707-B707</f>
         <v>0</v>
       </c>
     </row>
     <row r="708" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D708" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="709" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D709" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="710" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D710" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="711" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D711" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="712" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D712" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="713" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D713" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="714" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D714" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="715" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D715" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="716" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D716" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="717" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D717" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="718" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D718" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="719" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D719" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="720" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D720" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="721" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D721" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="722" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D722" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="723" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D723" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="724" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D724" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="725" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D725" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="726" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D726" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="727" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D727" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="728" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D728" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="729" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D729" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="730" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D730" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="731" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D731" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="732" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D732" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="733" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D733" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="734" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D734" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Mise en place du bouton Panier dans chaque vetement</t>
+  </si>
+  <si>
+    <t>Je commence a créer la passerèlle entre le login et la base de données users.json</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
   <dimension ref="A1:H734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1350,9 +1353,24 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>45006</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.6791666666666667</v>
+      </c>
       <c r="D35" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.6791666666666667</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1360,23 +1378,41 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F38" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -170,6 +170,15 @@
   </si>
   <si>
     <t>Je commence a créer la passerèlle entre le login et la base de données users.json</t>
+  </si>
+  <si>
+    <t>Je modifie les maquettes : Accueil et Accueil mobil</t>
+  </si>
+  <si>
+    <t>https://www.wifeo.com/code/10-css-hover-add-button.html#123</t>
+  </si>
+  <si>
+    <t>Je crée le bouton "Panier" dans l'onglet vêtements.</t>
   </si>
 </sst>
 </file>
@@ -555,7 +564,7 @@
   <dimension ref="A1:H734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1304,7 +1313,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>44999</v>
       </c>
@@ -1328,7 +1337,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>45000</v>
       </c>
@@ -1352,16 +1361,19 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>45006</v>
       </c>
       <c r="B35" s="4">
         <v>0.6791666666666667</v>
       </c>
+      <c r="C35" s="4">
+        <v>0.69166666666666676</v>
+      </c>
       <c r="D35" s="4">
         <f t="shared" si="0"/>
-        <v>-0.6791666666666667</v>
+        <v>1.2500000000000067E-2</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>11</v>
@@ -1370,13 +1382,22 @@
         <v>8</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>45006</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.70277777777777783</v>
+      </c>
       <c r="D36" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="D36" si="2">C36-B36</f>
+        <v>4.1666666666667629E-3</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>11</v>
@@ -1384,11 +1405,20 @@
       <c r="F36" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>45007</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="D37" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.60416666666666663</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>11</v>
@@ -1396,8 +1426,14 @@
       <c r="F37" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1406,7 +1442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1415,55 +1451,55 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D44" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D48" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1579,4017 +1615,4018 @@
     </row>
     <row r="67" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D67" s="4">
-        <f t="shared" ref="D67:D130" si="2">C67-B67</f>
+        <f t="shared" ref="D67:D130" si="3">C67-B67</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D68" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D69" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D70" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D71" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D72" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D73" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D74" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D75" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D76" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D77" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D78" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D79" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D80" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D81" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D82" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D83" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D84" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D85" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D86" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D87" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D88" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D89" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D90" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D91" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D92" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D93" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D94" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D95" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D96" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D97" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D98" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D99" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D100" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D101" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D102" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D103" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D104" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D105" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D106" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D107" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D108" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D109" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D110" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D111" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D112" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D113" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D114" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D115" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D116" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D117" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D118" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D119" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D120" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D121" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D122" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D123" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D124" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D125" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D126" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D127" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D128" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D129" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D130" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D131" s="4">
-        <f t="shared" ref="D131:D194" si="3">C131-B131</f>
+        <f t="shared" ref="D131:D194" si="4">C131-B131</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D132" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D133" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D134" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D135" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D136" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D137" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D138" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D139" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D140" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D141" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D142" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D143" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D144" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D145" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D146" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D147" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D148" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D149" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D150" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D151" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D152" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D153" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D154" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D155" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D156" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D157" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D158" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D159" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D160" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D161" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D162" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D163" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D164" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D165" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D166" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D167" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D168" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D169" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D170" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D171" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D172" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D173" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D174" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D175" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D176" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D177" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D178" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D179" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D180" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D181" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D182" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D183" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D184" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D185" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D186" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D187" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D188" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D189" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D190" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D191" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D192" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D193" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D194" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D195" s="4">
-        <f t="shared" ref="D195:D258" si="4">C195-B195</f>
+        <f t="shared" ref="D195:D258" si="5">C195-B195</f>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D196" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D197" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D198" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D199" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D200" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D201" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D202" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D203" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D204" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D205" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D206" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D207" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D208" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D209" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D210" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D211" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D212" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D213" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D214" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D215" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D216" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D217" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D218" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D219" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D220" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D221" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D222" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D223" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D224" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D225" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D226" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D227" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D228" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D229" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D230" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D231" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D232" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D233" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D234" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D235" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D236" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D237" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D238" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D239" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D240" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D241" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D242" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D243" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D244" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D245" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D246" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D247" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D248" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D249" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D250" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D251" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D252" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D253" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D254" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D255" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="256" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D256" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D257" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D258" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D259" s="4">
-        <f t="shared" ref="D259:D322" si="5">C259-B259</f>
+        <f t="shared" ref="D259:D322" si="6">C259-B259</f>
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D260" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D261" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D262" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D263" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D264" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D265" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D266" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D267" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D268" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D269" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D270" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D271" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="272" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D272" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D273" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="274" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D274" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D275" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="276" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D276" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="277" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D277" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D278" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="279" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D279" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D280" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="281" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D281" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="282" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D282" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="283" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D283" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="284" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D284" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="285" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D285" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="286" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D286" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D287" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D288" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="289" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D289" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D290" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="291" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D291" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="292" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D292" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="293" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D293" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="294" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D294" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="295" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D295" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D296" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="297" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D297" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="298" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D298" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D299" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="300" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D300" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D301" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="302" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D302" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="303" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D303" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="304" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D304" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="305" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D305" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="306" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D306" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="307" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D307" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="308" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D308" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="309" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D309" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D310" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="311" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D311" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="312" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D312" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="313" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D313" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="314" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D314" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="315" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D315" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="316" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D316" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="317" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D317" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="318" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D318" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="319" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D319" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="320" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D320" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="321" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D321" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="322" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D322" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="323" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D323" s="4">
-        <f t="shared" ref="D323:D386" si="6">C323-B323</f>
+        <f t="shared" ref="D323:D386" si="7">C323-B323</f>
         <v>0</v>
       </c>
     </row>
     <row r="324" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D324" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="325" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D325" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="326" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D326" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="327" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D327" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="328" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D328" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="329" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D329" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="330" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D330" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="331" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D331" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="332" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D332" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="333" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D333" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="334" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D334" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="335" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D335" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="336" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D336" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="337" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D337" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="338" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D338" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="339" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D339" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="340" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D340" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="341" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D341" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="342" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D342" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="343" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D343" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="344" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D344" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="345" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D345" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="346" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D346" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="347" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D347" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="348" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D348" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="349" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D349" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="350" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D350" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="351" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D351" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="352" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D352" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="353" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D353" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="354" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D354" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="355" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D355" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="356" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D356" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="357" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D357" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="358" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D358" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="359" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D359" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="360" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D360" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="361" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D361" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="362" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D362" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="363" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D363" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="364" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D364" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="365" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D365" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="366" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D366" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="367" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D367" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="368" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D368" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="369" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D369" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="370" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D370" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="371" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D371" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="372" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D372" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="373" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D373" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="374" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D374" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="375" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D375" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="376" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D376" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="377" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D377" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="378" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D378" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="379" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D379" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="380" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D380" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="381" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D381" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="382" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D382" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="383" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D383" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="384" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D384" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="385" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D385" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="386" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D386" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="387" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D387" s="4">
-        <f t="shared" ref="D387:D450" si="7">C387-B387</f>
+        <f t="shared" ref="D387:D450" si="8">C387-B387</f>
         <v>0</v>
       </c>
     </row>
     <row r="388" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D388" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="389" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D389" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="390" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D390" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="391" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D391" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="392" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D392" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="393" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D393" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="394" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D394" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="395" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D395" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="396" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D396" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="397" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D397" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="398" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D398" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="399" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D399" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="400" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D400" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="401" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D401" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="402" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D402" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="403" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D403" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="404" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D404" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="405" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D405" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="406" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D406" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="407" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D407" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="408" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D408" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="409" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D409" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="410" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D410" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="411" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D411" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="412" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D412" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="413" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D413" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="414" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D414" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="415" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D415" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="416" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D416" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="417" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D417" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="418" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D418" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="419" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D419" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="420" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D420" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="421" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D421" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="422" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D422" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="423" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D423" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="424" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D424" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="425" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D425" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="426" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D426" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="427" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D427" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="428" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D428" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="429" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D429" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="430" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D430" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="431" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D431" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="432" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D432" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="433" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D433" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="434" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D434" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="435" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D435" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="436" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D436" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="437" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D437" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="438" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D438" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="439" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D439" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="440" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D440" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="441" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D441" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="442" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D442" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="443" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D443" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="444" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D444" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="445" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D445" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="446" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D446" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="447" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D447" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="448" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D448" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="449" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D449" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="450" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D450" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="451" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D451" s="4">
-        <f t="shared" ref="D451:D514" si="8">C451-B451</f>
+        <f t="shared" ref="D451:D514" si="9">C451-B451</f>
         <v>0</v>
       </c>
     </row>
     <row r="452" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D452" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="453" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D453" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="454" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D454" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="455" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D455" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="456" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D456" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="457" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D457" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="458" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D458" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="459" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D459" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="460" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D460" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="461" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D461" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="462" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D462" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="463" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D463" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="464" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D464" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="465" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D465" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="466" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D466" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="467" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D467" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="468" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D468" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="469" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D469" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="470" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D470" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="471" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D471" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="472" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D472" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="473" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D473" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="474" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D474" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="475" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D475" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="476" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D476" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="477" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D477" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="478" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D478" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="479" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D479" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="480" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D480" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="481" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D481" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="482" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D482" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="483" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D483" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="484" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D484" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="485" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D485" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="486" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D486" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="487" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D487" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="488" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D488" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="489" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D489" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="490" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D490" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="491" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D491" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="492" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D492" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="493" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D493" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="494" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D494" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="495" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D495" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="496" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D496" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="497" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D497" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="498" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D498" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="499" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D499" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="500" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D500" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="501" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D501" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="502" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D502" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="503" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D503" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="504" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D504" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="505" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D505" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="506" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D506" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="507" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D507" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="508" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D508" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="509" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D509" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="510" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D510" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="511" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D511" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="512" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D512" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="513" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D513" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="514" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D514" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="515" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D515" s="4">
-        <f t="shared" ref="D515:D578" si="9">C515-B515</f>
+        <f t="shared" ref="D515:D578" si="10">C515-B515</f>
         <v>0</v>
       </c>
     </row>
     <row r="516" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D516" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="517" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D517" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="518" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D518" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="519" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D519" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="520" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D520" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="521" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D521" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="522" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D522" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="523" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D523" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="524" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D524" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="525" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D525" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="526" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D526" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="527" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D527" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="528" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D528" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="529" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D529" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="530" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D530" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="531" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D531" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="532" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D532" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="533" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D533" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="534" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D534" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="535" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D535" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="536" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D536" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="537" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D537" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="538" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D538" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="539" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D539" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="540" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D540" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="541" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D541" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="542" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D542" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="543" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D543" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="544" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D544" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="545" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D545" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="546" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D546" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="547" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D547" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="548" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D548" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="549" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D549" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="550" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D550" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="551" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D551" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="552" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D552" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="553" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D553" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="554" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D554" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="555" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D555" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="556" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D556" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="557" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D557" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="558" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D558" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="559" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D559" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="560" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D560" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="561" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D561" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="562" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D562" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="563" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D563" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="564" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D564" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="565" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D565" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="566" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D566" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="567" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D567" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="568" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D568" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="569" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D569" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="570" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D570" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="571" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D571" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="572" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D572" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="573" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D573" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="574" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D574" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="575" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D575" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="576" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D576" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="577" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D577" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="578" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D578" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="579" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D579" s="4">
-        <f t="shared" ref="D579:D642" si="10">C579-B579</f>
+        <f t="shared" ref="D579:D642" si="11">C579-B579</f>
         <v>0</v>
       </c>
     </row>
     <row r="580" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D580" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="581" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D581" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="582" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D582" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="583" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D583" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="584" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D584" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="585" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D585" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="586" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D586" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="587" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D587" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="588" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D588" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="589" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D589" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="590" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D590" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="591" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D591" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="592" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D592" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="593" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D593" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="594" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D594" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="595" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D595" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="596" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D596" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="597" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D597" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="598" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D598" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="599" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D599" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="600" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D600" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="601" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D601" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="602" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D602" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="603" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D603" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="604" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D604" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="605" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D605" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="606" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D606" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="607" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D607" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="608" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D608" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="609" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D609" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="610" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D610" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="611" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D611" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="612" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D612" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="613" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D613" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="614" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D614" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="615" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D615" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="616" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D616" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="617" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D617" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="618" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D618" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="619" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D619" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="620" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D620" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="621" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D621" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="622" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D622" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="623" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D623" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="624" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D624" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="625" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D625" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="626" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D626" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="627" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D627" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="628" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D628" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="629" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D629" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="630" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D630" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="631" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D631" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="632" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D632" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="633" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D633" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="634" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D634" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="635" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D635" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="636" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D636" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="637" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D637" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="638" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D638" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="639" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D639" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="640" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D640" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="641" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D641" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="642" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D642" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="643" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D643" s="4">
-        <f t="shared" ref="D643:D706" si="11">C643-B643</f>
+        <f t="shared" ref="D643:D706" si="12">C643-B643</f>
         <v>0</v>
       </c>
     </row>
     <row r="644" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D644" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="645" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D645" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="646" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D646" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="647" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D647" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="648" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D648" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="649" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D649" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="650" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D650" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="651" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D651" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="652" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D652" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="653" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D653" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="654" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D654" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="655" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D655" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="656" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D656" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="657" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D657" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="658" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D658" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="659" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D659" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="660" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D660" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="661" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D661" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="662" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D662" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="663" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D663" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="664" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D664" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="665" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D665" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="666" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D666" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="667" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D667" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="668" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D668" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="669" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D669" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="670" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D670" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="671" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D671" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="672" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D672" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="673" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D673" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="674" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D674" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="675" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D675" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="676" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D676" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="677" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D677" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="678" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D678" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="679" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D679" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="680" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D680" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="681" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D681" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="682" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D682" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="683" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D683" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="684" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D684" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="685" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D685" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="686" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D686" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="687" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D687" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="688" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D688" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="689" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D689" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="690" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D690" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="691" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D691" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="692" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D692" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="693" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D693" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="694" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D694" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="695" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D695" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="696" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D696" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="697" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D697" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="698" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D698" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="699" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D699" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="700" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D700" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="701" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D701" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="702" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D702" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="703" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D703" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="704" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D704" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="705" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D705" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="706" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D706" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="707" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D707" s="4">
-        <f t="shared" ref="D707:D734" si="12">C707-B707</f>
+        <f t="shared" ref="D707:D734" si="13">C707-B707</f>
         <v>0</v>
       </c>
     </row>
     <row r="708" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D708" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="709" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D709" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="710" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D710" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="711" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D711" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="712" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D712" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="713" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D713" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="714" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D714" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="715" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D715" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="716" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D716" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="717" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D717" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="718" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D718" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="719" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D719" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="720" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D720" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="721" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D721" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="722" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D722" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="723" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D723" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="724" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D724" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="725" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D725" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="726" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D726" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="727" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D727" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="728" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D728" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="729" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D729" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="730" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D730" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="731" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D731" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="732" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D732" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="733" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D733" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="734" spans="4:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D734" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H21" r:id="rId1"/>
+    <hyperlink ref="H37" r:id="rId2" location="123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>Je crée le bouton "Panier" dans l'onglet vêtements.</t>
+  </si>
+  <si>
+    <t>Mr. Meylan</t>
+  </si>
+  <si>
+    <t>Je crée la passerèlle entre le login et le fichier user.json.</t>
   </si>
 </sst>
 </file>
@@ -564,7 +570,7 @@
   <dimension ref="A1:H734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1416,9 +1422,12 @@
       <c r="B37" s="4">
         <v>0.60416666666666663</v>
       </c>
+      <c r="C37" s="4">
+        <v>0.6381944444444444</v>
+      </c>
       <c r="D37" s="4">
         <f t="shared" si="0"/>
-        <v>-0.60416666666666663</v>
+        <v>3.4027777777777768E-2</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>11</v>
@@ -1434,12 +1443,30 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>45007</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.70416666666666661</v>
+      </c>
       <c r="D38" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.4583333333333326E-2</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>8</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Je crée la passerèlle entre le login et le fichier user.json.</t>
+  </si>
+  <si>
+    <t>Je met la phrase de bien venue sur la page d'accueil contenant le nom de l'utilisateur.</t>
   </si>
 </sst>
 </file>
@@ -570,7 +573,7 @@
   <dimension ref="A1:H734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1470,24 +1473,42 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>45008</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.56736111111111109</v>
+      </c>
       <c r="D39" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.56736111111111109</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="G39" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E40" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>Je met la phrase de bien venue sur la page d'accueil contenant le nom de l'utilisateur.</t>
+  </si>
+  <si>
+    <t>Changement de la mise en page generale du site .</t>
+  </si>
+  <si>
+    <t>Alessia</t>
+  </si>
+  <si>
+    <t>Changement du fond de page ainsi que de la NavBar</t>
   </si>
 </sst>
 </file>
@@ -572,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H734"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1479,9 +1488,12 @@
       <c r="B39" s="4">
         <v>0.56736111111111109</v>
       </c>
+      <c r="C39" s="4">
+        <v>0.59375</v>
+      </c>
       <c r="D39" s="4">
         <f t="shared" si="0"/>
-        <v>-0.56736111111111109</v>
+        <v>2.6388888888888906E-2</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>11</v>
@@ -1494,27 +1506,63 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>45008</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.59513888888888888</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.67499999999999993</v>
+      </c>
       <c r="D40" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.9861111111111049E-2</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>45008</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.70416666666666661</v>
+      </c>
       <c r="D41" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7083333333333237E-2</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Changement du fond de page ainsi que de la NavBar</t>
+  </si>
+  <si>
+    <t>Mise en forme de la navBar en mode mobile</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
   <dimension ref="A1:H734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1557,12 +1560,24 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>45012</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.33819444444444446</v>
+      </c>
       <c r="D42" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.33819444444444446</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>8</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -585,7 +585,7 @@
   <dimension ref="A1:H734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1566,9 +1566,12 @@
       <c r="B42" s="4">
         <v>0.33819444444444446</v>
       </c>
+      <c r="C42" s="4">
+        <v>0.36041666666666666</v>
+      </c>
       <c r="D42" s="4">
         <f t="shared" si="0"/>
-        <v>-0.33819444444444446</v>
+        <v>2.2222222222222199E-2</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>11</v>
@@ -1581,9 +1584,15 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>45014</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.59861111111111109</v>
+      </c>
       <c r="D43" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.59861111111111109</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documentation/Journal_De_Travail.xlsx
+++ b/Documentation/Journal_De_Travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Mise en forme de la navBar en mode mobile</t>
+  </si>
+  <si>
+    <t>Configuration de la création de compte.</t>
   </si>
 </sst>
 </file>
@@ -585,7 +588,7 @@
   <dimension ref="A1:H734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1590,9 +1593,24 @@
       <c r="B43" s="4">
         <v>0.59861111111111109</v>
       </c>
+      <c r="C43" s="4">
+        <v>0.65</v>
+      </c>
       <c r="D43" s="4">
         <f t="shared" si="0"/>
-        <v>-0.59861111111111109</v>
+        <v>5.1388888888888928E-2</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
